--- a/Processed Results/Mi 9T/Cpu/Cpu - Processed.xlsx
+++ b/Processed Results/Mi 9T/Cpu/Cpu - Processed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB13438-FF3F-4E0D-8779-9CF5507A8148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3B5A54-CC06-4933-8097-64835433F15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="5340" yWindow="370" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$2:$A$31</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$A$34:$A$63</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$A$66:$A$95</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$B$65</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$66:$A$95</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$65</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$34:$B$63</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$98:$B$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -203,11 +203,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Cpu</a:t>
+              <a:t>CPU</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t> factorial - low frequency</a:t>
+              <a:t> - low frequency</a:t>
             </a:r>
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
@@ -831,11 +831,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Cpu</a:t>
+              <a:t>CPU </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t> factorial - medium frequency</a:t>
+              <a:t>- medium frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1427,7 +1427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cpu factorial</a:t>
+              <a:t>CPU</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2103,7 +2103,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Cpu factorial - low frequency</cx:v>
+          <cx:v>CPU - low frequency</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -2123,7 +2123,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Cpu factorial - low frequency</a:t>
+            <a:t>CPU - low frequency</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -2214,10 +2214,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2225,7 +2225,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Cpu factorial</cx:v>
+          <cx:v>CPU</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -2245,7 +2245,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Cpu factorial</a:t>
+            <a:t>CPU</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -2335,10 +2335,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2346,7 +2346,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Cpu factorial - medium frequency</cx:v>
+          <cx:v>CPU - medium frequency</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -2366,7 +2366,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Cpu factorial - medium frequency</a:t>
+            <a:t>CPU - medium frequency</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -2376,7 +2376,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2463,10 +2463,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2474,7 +2474,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Cpu factorial - high frequency</cx:v>
+          <cx:v>CPU - high frequency</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -2494,7 +2494,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Cpu factorial - high frequency</a:t>
+            <a:t>CPU - high frequency</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -2504,7 +2504,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{138ACD3C-CAEA-4AEF-B3DF-B982F1EA92CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>High_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7198,8 +7198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Processed Results/Mi 9T/Cpu/Cpu - Processed.xlsx
+++ b/Processed Results/Mi 9T/Cpu/Cpu - Processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3B5A54-CC06-4933-8097-64835433F15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC0AB67-DE27-4775-AE75-41A0C77E0EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="370" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="290" yWindow="450" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$2:$A$31</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$66:$A$95</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$65</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$66:$B$95</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$34:$A$63</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$98:$B$187</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$34:$B$63</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$98:$B$187</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$A$66:$A$95</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$B$65</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$66:$B$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
     <t>Mean line</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Relative std</t>
+  </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
   </si>
 </sst>
 </file>
@@ -2214,10 +2220,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2335,10 +2341,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2376,7 +2382,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2463,10 +2469,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2504,7 +2510,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{138ACD3C-CAEA-4AEF-B3DF-B982F1EA92CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>High_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7196,10 +7202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7413,7 +7419,7 @@
         <v>2.899111894598406</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7421,23 +7427,37 @@
         <v>116.969004</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>102.95791199999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>101.85591599999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f xml:space="preserve"> ((102.889693 / 95.321842) * 100) - 100</f>
+        <v>7.9392622312103356</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((102.092058 / 95.22216) * 100) - 100</f>
+        <v>7.2146000468798377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7445,7 +7465,7 @@
         <v>101.54106</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7453,7 +7473,7 @@
         <v>102.3282</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7461,7 +7481,7 @@
         <v>102.170772</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7469,7 +7489,7 @@
         <v>102.48562800000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7477,7 +7497,7 @@
         <v>102.643056</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7485,7 +7505,7 @@
         <v>103.587623999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7493,7 +7513,7 @@
         <v>101.85591599999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7501,7 +7521,7 @@
         <v>101.54106</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7509,7 +7529,7 @@
         <v>101.698488</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7517,7 +7537,7 @@
         <v>102.013344</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7525,7 +7545,7 @@
         <v>101.38363200000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7533,7 +7553,7 @@
         <v>102.3282</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -7740,7 +7760,7 @@
         <v>0.49411628631388266</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -7748,23 +7768,37 @@
         <v>105.426431999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>104.95296</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>105.426431999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f xml:space="preserve"> ((105.263347 / 95.321842) * 100) - 100</f>
+        <v>10.429409242846987</v>
+      </c>
+      <c r="F51">
+        <f xml:space="preserve"> ((105.110784 / 95.22216) * 100) - 100</f>
+        <v>10.384792783528525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7772,7 +7806,7 @@
         <v>104.795136</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7780,7 +7814,7 @@
         <v>104.95296</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7788,7 +7822,7 @@
         <v>104.95296</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7796,7 +7830,7 @@
         <v>105.584256</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7804,7 +7838,7 @@
         <v>104.95296</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7812,7 +7846,7 @@
         <v>105.426431999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7820,7 +7854,7 @@
         <v>104.795136</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7828,7 +7862,7 @@
         <v>105.110784</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7836,7 +7870,7 @@
         <v>105.110784</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7844,7 +7878,7 @@
         <v>105.110784</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -7852,7 +7886,7 @@
         <v>104.16383999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -7860,7 +7894,7 @@
         <v>105.89990400000001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -8067,7 +8101,7 @@
         <v>1.0524082737757776</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -8075,23 +8109,37 @@
         <v>114.03741599999999</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="1">
         <v>113.401224</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>113.71932</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f xml:space="preserve"> ((114.318401 / 95.321842) * 100) - 100</f>
+        <v>19.928862683958613</v>
+      </c>
+      <c r="F83">
+        <f>((114.037416 / 95.22216) * 100) - 100</f>
+        <v>19.759324930247317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -8099,7 +8147,7 @@
         <v>113.87836799999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -8107,7 +8155,7 @@
         <v>113.71932</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -8115,7 +8163,7 @@
         <v>114.03741599999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -8123,7 +8171,7 @@
         <v>114.196463999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -8131,7 +8179,7 @@
         <v>114.67360799999901</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -8139,7 +8187,7 @@
         <v>115.150752</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -8147,7 +8195,7 @@
         <v>113.71932</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -8155,7 +8203,7 @@
         <v>113.87836799999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -8163,7 +8211,7 @@
         <v>116.90028</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -8171,7 +8219,7 @@
         <v>112.605983999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -8179,7 +8227,7 @@
         <v>114.51456</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -8187,7 +8235,7 @@
         <v>113.71932</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8315,23 +8363,37 @@
         <v>101.698488</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>116.969004</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="1">
         <v>102.95791199999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f>(D19 + D51 + D83) / 3</f>
+        <v>12.765844719338645</v>
+      </c>
+      <c r="F114">
+        <f xml:space="preserve"> (F19 + F51 + F83) / 3</f>
+        <v>12.45290592021856</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -8339,7 +8401,7 @@
         <v>101.85591599999999</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -8347,7 +8409,7 @@
         <v>101.54106</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -8355,7 +8417,7 @@
         <v>102.3282</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -8363,7 +8425,7 @@
         <v>102.170772</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -8371,7 +8433,7 @@
         <v>102.48562800000001</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -8379,7 +8441,7 @@
         <v>102.643056</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -8387,7 +8449,7 @@
         <v>103.587623999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -8395,7 +8457,7 @@
         <v>101.85591599999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -8403,7 +8465,7 @@
         <v>101.54106</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -8411,7 +8473,7 @@
         <v>101.698488</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -8419,7 +8481,7 @@
         <v>102.013344</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -8427,7 +8489,7 @@
         <v>101.38363200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8435,7 +8497,7 @@
         <v>102.3282</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
